--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57901\macpro-onemac-automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5FDD3D-1B7F-4F05-AEDA-38BCA32D4499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E64A35-8F87-46FA-AEA2-458722C02F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="1200" windowWidth="21600" windowHeight="11295" xr2:uid="{75A6ABCC-9875-48AC-9A16-7CDC4958549E}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{75A6ABCC-9875-48AC-9A16-7CDC4958549E}"/>
   </bookViews>
   <sheets>
     <sheet name="Packages" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="53">
   <si>
     <t>PackageType</t>
   </si>
@@ -60,148 +60,130 @@
     <t>Medicaid SPA</t>
   </si>
   <si>
+    <t>MD-25-9261</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>MD-25-9266</t>
+  </si>
+  <si>
+    <t>Under Review</t>
+  </si>
+  <si>
+    <t>MD-25-9267</t>
+  </si>
+  <si>
+    <t>MD-25-9268</t>
+  </si>
+  <si>
+    <t>MD-25-9269</t>
+  </si>
+  <si>
+    <t>MD-25-9271</t>
+  </si>
+  <si>
+    <t>MD-25-9272</t>
+  </si>
+  <si>
+    <t>MD-25-9273</t>
+  </si>
+  <si>
+    <t>MD-25-9275</t>
+  </si>
+  <si>
+    <t>MD-25-9276</t>
+  </si>
+  <si>
+    <t>MD-25-9277</t>
+  </si>
+  <si>
+    <t>MD-25-9278</t>
+  </si>
+  <si>
+    <t>Disapproved</t>
+  </si>
+  <si>
+    <t>MD-25-9279</t>
+  </si>
+  <si>
+    <t>MD-25-9280</t>
+  </si>
+  <si>
+    <t>MD-2259.R00.00</t>
+  </si>
+  <si>
+    <t>1915(b)</t>
+  </si>
+  <si>
+    <t>Terminated</t>
+  </si>
+  <si>
+    <t>Waiver</t>
+  </si>
+  <si>
+    <t>MD-25-9282</t>
+  </si>
+  <si>
     <t>Submitted</t>
   </si>
   <si>
-    <t>MD-25-9231</t>
-  </si>
-  <si>
-    <t>MD-25-9232</t>
-  </si>
-  <si>
-    <t>MD-25-9233</t>
-  </si>
-  <si>
-    <t>MD-25-9234</t>
-  </si>
-  <si>
-    <t>MD-25-9235</t>
-  </si>
-  <si>
-    <t>MD-25-9236</t>
-  </si>
-  <si>
-    <t>MD-25-9237</t>
-  </si>
-  <si>
-    <t>MD-25-9238</t>
-  </si>
-  <si>
-    <t>MD-25-9239</t>
-  </si>
-  <si>
-    <t>MD-25-9240</t>
-  </si>
-  <si>
-    <t>CHIP SPA</t>
-  </si>
-  <si>
-    <t>MD-25-9241</t>
-  </si>
-  <si>
-    <t>MD-25-9242</t>
-  </si>
-  <si>
-    <t>MD-25-9243</t>
-  </si>
-  <si>
-    <t>MD-25-9244</t>
-  </si>
-  <si>
-    <t>MD-25-9245</t>
-  </si>
-  <si>
-    <t>Waiver</t>
-  </si>
-  <si>
-    <t>1915(b)</t>
+    <t>Pending-Concurrence</t>
+  </si>
+  <si>
+    <t>MD-25-9283</t>
+  </si>
+  <si>
+    <t>MD-25-9284</t>
+  </si>
+  <si>
+    <t>MD-25-9285</t>
+  </si>
+  <si>
+    <t>MD-25-9286</t>
+  </si>
+  <si>
+    <t>MD-25-9287</t>
+  </si>
+  <si>
+    <t>Pending-Approval</t>
+  </si>
+  <si>
+    <t>MD-25-9288</t>
   </si>
   <si>
     <t>Initial</t>
   </si>
   <si>
-    <t>MD-2242.R00.00</t>
-  </si>
-  <si>
-    <t>1915(c)</t>
-  </si>
-  <si>
-    <t>MD-2243.R00.00</t>
-  </si>
-  <si>
-    <t>MD-2244.R00.00</t>
-  </si>
-  <si>
-    <t>MD-2245.R00.00</t>
-  </si>
-  <si>
-    <t>MD-2246.R00.00</t>
-  </si>
-  <si>
-    <t>MD-2247.R00.00</t>
-  </si>
-  <si>
-    <t>Package Withdrawn</t>
-  </si>
-  <si>
-    <t>MD-25-9246</t>
-  </si>
-  <si>
-    <t>MD-25-9247</t>
-  </si>
-  <si>
-    <t>MD-25-9248</t>
-  </si>
-  <si>
-    <t>MD-25-9249</t>
-  </si>
-  <si>
-    <t>MD-25-9250</t>
-  </si>
-  <si>
-    <t>MD-25-9251</t>
-  </si>
-  <si>
-    <t>MD-25-9252</t>
-  </si>
-  <si>
-    <t>MD-25-9253</t>
-  </si>
-  <si>
-    <t>MD-25-9254</t>
-  </si>
-  <si>
-    <t>MD-25-9255</t>
-  </si>
-  <si>
-    <t>MD-25-9256</t>
-  </si>
-  <si>
-    <t>MD-25-9257</t>
-  </si>
-  <si>
-    <t>MD-25-9258</t>
-  </si>
-  <si>
-    <t>MD-25-9259</t>
-  </si>
-  <si>
-    <t>MD-25-9260</t>
-  </si>
-  <si>
-    <t>MD-25-9261</t>
-  </si>
-  <si>
-    <t>MD-25-9262</t>
-  </si>
-  <si>
-    <t>MD-25-9263</t>
-  </si>
-  <si>
-    <t>MD-25-9264</t>
-  </si>
-  <si>
-    <t>MD-25-9265</t>
+    <t>MD-2260.R00.00</t>
+  </si>
+  <si>
+    <t>MD-25-9289</t>
+  </si>
+  <si>
+    <t>MD-25-9290</t>
+  </si>
+  <si>
+    <t>MD-25-9291</t>
+  </si>
+  <si>
+    <t>MD-25-9292</t>
+  </si>
+  <si>
+    <t>Withdrawn</t>
+  </si>
+  <si>
+    <t>MD-25-9293</t>
+  </si>
+  <si>
+    <t>MD-25-9294</t>
+  </si>
+  <si>
+    <t>MD-25-9295</t>
+  </si>
+  <si>
+    <t>MD-25-9296</t>
   </si>
 </sst>
 </file>
@@ -246,10 +228,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +583,7 @@
     <col min="3" max="3" customWidth="true" width="13.5703125"/>
     <col min="4" max="4" customWidth="true" width="27.140625"/>
     <col min="5" max="5" customWidth="true" width="20.7109375"/>
-    <col min="6" max="6" customWidth="true" width="16.42578125"/>
+    <col min="6" max="6" customWidth="true" width="26.42578125"/>
     <col min="7" max="7" customWidth="true" width="30.28515625"/>
   </cols>
   <sheetData>
@@ -639,10 +624,10 @@
         <v>9</v>
       </c>
       <c r="E2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>11</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>9</v>
@@ -665,7 +650,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>9</v>
@@ -685,10 +670,10 @@
         <v>9</v>
       </c>
       <c r="E4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>14</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>11</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>9</v>
@@ -708,10 +693,10 @@
         <v>9</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>9</v>
@@ -731,10 +716,10 @@
         <v>9</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>9</v>
@@ -754,10 +739,10 @@
         <v>9</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s" s="0">
         <v>9</v>
@@ -777,10 +762,10 @@
         <v>9</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s" s="0">
         <v>9</v>
@@ -800,10 +785,10 @@
         <v>9</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s" s="0">
         <v>9</v>
@@ -823,10 +808,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s" s="0">
         <v>9</v>
@@ -846,10 +831,10 @@
         <v>9</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s" s="0">
         <v>9</v>
@@ -863,7 +848,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>9</v>
@@ -872,7 +857,7 @@
         <v>23</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s" s="0">
         <v>9</v>
@@ -895,7 +880,7 @@
         <v>24</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s" s="0">
         <v>9</v>
@@ -909,16 +894,16 @@
         <v>8</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>9</v>
       </c>
       <c r="E14" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>25</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>9</v>
       </c>
       <c r="G14" t="s" s="0">
         <v>9</v>
@@ -938,10 +923,10 @@
         <v>9</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s" s="0">
         <v>9</v>
@@ -949,160 +934,160 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s" s="0">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>8</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>9</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s" s="0">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>8</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s" s="0">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>8</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s" s="0">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>8</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="F19" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="G19" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E20" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="F20" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="G20" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="F21" t="s" s="0">
-        <v>9</v>
-      </c>
       <c r="G21" t="s" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s" s="0">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>8</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s" s="0">
         <v>9</v>
@@ -1122,10 +1107,10 @@
         <v>9</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s" s="0">
         <v>9</v>
@@ -1133,22 +1118,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>8</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s" s="0">
         <v>9</v>
@@ -1168,10 +1153,10 @@
         <v>9</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s" s="0">
         <v>9</v>
@@ -1191,10 +1176,10 @@
         <v>9</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s" s="0">
         <v>9</v>
@@ -1214,10 +1199,10 @@
         <v>9</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s" s="0">
         <v>9</v>
@@ -1237,10 +1222,10 @@
         <v>9</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s" s="0">
         <v>9</v>
@@ -1260,10 +1245,10 @@
         <v>9</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s" s="0">
         <v>9</v>
@@ -1283,10 +1268,10 @@
         <v>9</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s" s="0">
         <v>9</v>
@@ -1306,10 +1291,10 @@
         <v>9</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s" s="0">
         <v>9</v>
@@ -1329,242 +1314,12 @@
         <v>9</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D33" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="F33" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D34" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="F34" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B35" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E35" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="F35" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B36" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="F36" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B37" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E37" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="F37" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B38" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C38" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E38" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="F38" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B39" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D39" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E39" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="F39" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B40" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D40" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E40" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="F40" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D41" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E41" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="F41" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B42" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E42" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="F42" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s" s="0">
         <v>9</v>
       </c>
     </row>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57901\macpro-onemac-automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E64A35-8F87-46FA-AEA2-458722C02F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DF7310-F123-45D3-97B7-D879FA7111CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{75A6ABCC-9875-48AC-9A16-7CDC4958549E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{75A6ABCC-9875-48AC-9A16-7CDC4958549E}"/>
   </bookViews>
   <sheets>
     <sheet name="Packages" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="77">
   <si>
     <t>PackageType</t>
   </si>
@@ -184,6 +184,78 @@
   </si>
   <si>
     <t>MD-25-9296</t>
+  </si>
+  <si>
+    <t>MD-25-9298</t>
+  </si>
+  <si>
+    <t>1915(c)</t>
+  </si>
+  <si>
+    <t>Amendment</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.01</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.02</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.03</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.04</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.05</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.06</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.07</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.08</t>
+  </si>
+  <si>
+    <t>Unsubmitted</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.09</t>
+  </si>
+  <si>
+    <t>MD-25-9299</t>
+  </si>
+  <si>
+    <t>MD-25-9300</t>
+  </si>
+  <si>
+    <t>MD-25-9301</t>
+  </si>
+  <si>
+    <t>MD-25-9302</t>
+  </si>
+  <si>
+    <t>MD-25-9303</t>
+  </si>
+  <si>
+    <t>MD-25-9304</t>
+  </si>
+  <si>
+    <t>MD-25-9305</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.10</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.11</t>
+  </si>
+  <si>
+    <t>MD-25-9306</t>
+  </si>
+  <si>
+    <t>MD-25-9308</t>
   </si>
 </sst>
 </file>
@@ -570,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +1027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s" s="0">
         <v>7</v>
       </c>
@@ -978,7 +1050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s" s="0">
         <v>7</v>
       </c>
@@ -1001,7 +1073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s" s="0">
         <v>7</v>
       </c>
@@ -1024,7 +1096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s" s="0">
         <v>7</v>
       </c>
@@ -1047,7 +1119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s" s="0">
         <v>7</v>
       </c>
@@ -1070,7 +1142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s" s="0">
         <v>7</v>
       </c>
@@ -1093,7 +1165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s" s="0">
         <v>7</v>
       </c>
@@ -1116,7 +1188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s" s="0">
         <v>31</v>
       </c>
@@ -1124,7 +1196,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s" s="0">
         <v>42</v>
@@ -1133,13 +1205,13 @@
         <v>43</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s" s="0">
         <v>7</v>
       </c>
@@ -1162,7 +1234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s" s="0">
         <v>7</v>
       </c>
@@ -1185,7 +1257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s" s="0">
         <v>7</v>
       </c>
@@ -1208,7 +1280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s" s="0">
         <v>7</v>
       </c>
@@ -1231,7 +1303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s" s="0">
         <v>7</v>
       </c>
@@ -1254,7 +1326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s" s="0">
         <v>7</v>
       </c>
@@ -1277,7 +1349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s" s="0">
         <v>7</v>
       </c>
@@ -1300,7 +1372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s" s="0">
         <v>7</v>
       </c>
@@ -1320,6 +1392,489 @@
         <v>14</v>
       </c>
       <c r="G32" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F51" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F52" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G52" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="F53" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G53" t="s" s="0">
         <v>9</v>
       </c>
     </row>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57901\macpro-onemac-automation\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jad92\macpro-onemac-automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DF7310-F123-45D3-97B7-D879FA7111CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ABC1EC-57D6-4251-880B-45488E9599BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{75A6ABCC-9875-48AC-9A16-7CDC4958549E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{75A6ABCC-9875-48AC-9A16-7CDC4958549E}"/>
   </bookViews>
   <sheets>
     <sheet name="Packages" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="131">
   <si>
     <t>PackageType</t>
   </si>
@@ -256,6 +256,168 @@
   </si>
   <si>
     <t>MD-25-9308</t>
+  </si>
+  <si>
+    <t>MD-25-9309</t>
+  </si>
+  <si>
+    <t>MD-25-9310</t>
+  </si>
+  <si>
+    <t>MD-25-9311</t>
+  </si>
+  <si>
+    <t>MD-25-9312</t>
+  </si>
+  <si>
+    <t>MD-25-9313</t>
+  </si>
+  <si>
+    <t>MD-25-9314</t>
+  </si>
+  <si>
+    <t>MD-25-9315</t>
+  </si>
+  <si>
+    <t>MD-25-9316</t>
+  </si>
+  <si>
+    <t>MD-25-9317</t>
+  </si>
+  <si>
+    <t>MD-25-9318</t>
+  </si>
+  <si>
+    <t>MD-25-9319</t>
+  </si>
+  <si>
+    <t>MD-25-9320</t>
+  </si>
+  <si>
+    <t>MD-25-9321</t>
+  </si>
+  <si>
+    <t>MD-25-9322</t>
+  </si>
+  <si>
+    <t>MD-25-9323</t>
+  </si>
+  <si>
+    <t>MD-25-9324</t>
+  </si>
+  <si>
+    <t>MD-25-9325</t>
+  </si>
+  <si>
+    <t>MD-25-9326</t>
+  </si>
+  <si>
+    <t>MD-25-9327</t>
+  </si>
+  <si>
+    <t>MD-25-9328</t>
+  </si>
+  <si>
+    <t>MD-25-9329</t>
+  </si>
+  <si>
+    <t>MD-25-9330</t>
+  </si>
+  <si>
+    <t>MD-25-9331</t>
+  </si>
+  <si>
+    <t>MD-25-9332</t>
+  </si>
+  <si>
+    <t>MD-25-9333</t>
+  </si>
+  <si>
+    <t>MD-2261.R00.00</t>
+  </si>
+  <si>
+    <t>MD-25-9334</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.12</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.13</t>
+  </si>
+  <si>
+    <t>MD-25-9335</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.14</t>
+  </si>
+  <si>
+    <t>MD-25-9336</t>
+  </si>
+  <si>
+    <t>MD-2262.R00.00</t>
+  </si>
+  <si>
+    <t>MD-2263.R00.00</t>
+  </si>
+  <si>
+    <t>MD-25-9337</t>
+  </si>
+  <si>
+    <t>MD-25-9338</t>
+  </si>
+  <si>
+    <t>MD-25-9339</t>
+  </si>
+  <si>
+    <t>MD-25-9340</t>
+  </si>
+  <si>
+    <t>MD-25-9341</t>
+  </si>
+  <si>
+    <t>MD-25-9342</t>
+  </si>
+  <si>
+    <t>MD-25-9343</t>
+  </si>
+  <si>
+    <t>MD-25-9344</t>
+  </si>
+  <si>
+    <t>MD-25-9345</t>
+  </si>
+  <si>
+    <t>MD-25-9346</t>
+  </si>
+  <si>
+    <t>MD-2264.R00.00</t>
+  </si>
+  <si>
+    <t>MD-2265.R00.00</t>
+  </si>
+  <si>
+    <t>MD-2266.R00.00</t>
+  </si>
+  <si>
+    <t>MD-25-9347</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.15</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.16</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.17</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.18</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.19</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.20</t>
   </si>
 </sst>
 </file>
@@ -642,24 +804,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.28515625"/>
-    <col min="2" max="2" customWidth="true" width="16.7109375"/>
-    <col min="3" max="3" customWidth="true" width="13.5703125"/>
-    <col min="4" max="4" customWidth="true" width="27.140625"/>
-    <col min="5" max="5" customWidth="true" width="20.7109375"/>
-    <col min="6" max="6" customWidth="true" width="26.42578125"/>
-    <col min="7" max="7" customWidth="true" width="30.28515625"/>
+    <col min="1" max="1" customWidth="true" width="26.33203125"/>
+    <col min="2" max="2" customWidth="true" width="16.6640625"/>
+    <col min="3" max="3" customWidth="true" width="13.5546875"/>
+    <col min="4" max="4" customWidth="true" width="27.109375"/>
+    <col min="5" max="5" customWidth="true" width="20.6640625"/>
+    <col min="6" max="6" customWidth="true" width="26.44140625"/>
+    <col min="7" max="7" customWidth="true" width="30.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>7</v>
       </c>
@@ -705,7 +867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>7</v>
       </c>
@@ -728,7 +890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
@@ -751,7 +913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
         <v>7</v>
       </c>
@@ -774,7 +936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
         <v>7</v>
       </c>
@@ -797,7 +959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
         <v>7</v>
       </c>
@@ -820,7 +982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
@@ -843,7 +1005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
         <v>7</v>
       </c>
@@ -866,7 +1028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
         <v>7</v>
       </c>
@@ -889,7 +1051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
         <v>7</v>
       </c>
@@ -912,7 +1074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
         <v>7</v>
       </c>
@@ -935,7 +1097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
         <v>7</v>
       </c>
@@ -958,7 +1120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s" s="0">
         <v>7</v>
       </c>
@@ -981,7 +1143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s" s="0">
         <v>7</v>
       </c>
@@ -1004,7 +1166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s" s="0">
         <v>31</v>
       </c>
@@ -1027,7 +1189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s" s="0">
         <v>7</v>
       </c>
@@ -1050,7 +1212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s" s="0">
         <v>7</v>
       </c>
@@ -1073,7 +1235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s" s="0">
         <v>7</v>
       </c>
@@ -1096,7 +1258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s" s="0">
         <v>7</v>
       </c>
@@ -1119,7 +1281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s" s="0">
         <v>7</v>
       </c>
@@ -1142,7 +1304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s" s="0">
         <v>7</v>
       </c>
@@ -1165,7 +1327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s" s="0">
         <v>7</v>
       </c>
@@ -1188,7 +1350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s" s="0">
         <v>31</v>
       </c>
@@ -1211,7 +1373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s" s="0">
         <v>7</v>
       </c>
@@ -1234,7 +1396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s" s="0">
         <v>7</v>
       </c>
@@ -1257,7 +1419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s" s="0">
         <v>7</v>
       </c>
@@ -1280,7 +1442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s" s="0">
         <v>7</v>
       </c>
@@ -1303,7 +1465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s" s="0">
         <v>7</v>
       </c>
@@ -1326,7 +1488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s" s="0">
         <v>7</v>
       </c>
@@ -1349,7 +1511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s" s="0">
         <v>7</v>
       </c>
@@ -1372,7 +1534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s" s="0">
         <v>7</v>
       </c>
@@ -1395,7 +1557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s" s="0">
         <v>7</v>
       </c>
@@ -1418,7 +1580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s" s="0">
         <v>31</v>
       </c>
@@ -1435,13 +1597,13 @@
         <v>56</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s" s="0">
         <v>43</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s" s="0">
         <v>31</v>
       </c>
@@ -1458,13 +1620,13 @@
         <v>57</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s" s="0">
         <v>43</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s" s="0">
         <v>31</v>
       </c>
@@ -1481,13 +1643,13 @@
         <v>58</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s" s="0">
         <v>43</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s" s="0">
         <v>31</v>
       </c>
@@ -1504,13 +1666,13 @@
         <v>59</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s" s="0">
         <v>43</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s" s="0">
         <v>31</v>
       </c>
@@ -1527,13 +1689,13 @@
         <v>60</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s" s="0">
         <v>43</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s" s="0">
         <v>31</v>
       </c>
@@ -1556,7 +1718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s" s="0">
         <v>31</v>
       </c>
@@ -1573,13 +1735,13 @@
         <v>62</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s" s="0">
         <v>43</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s" s="0">
         <v>31</v>
       </c>
@@ -1602,7 +1764,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s" s="0">
         <v>31</v>
       </c>
@@ -1625,7 +1787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s" s="0">
         <v>7</v>
       </c>
@@ -1648,7 +1810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s" s="0">
         <v>7</v>
       </c>
@@ -1671,7 +1833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s" s="0">
         <v>7</v>
       </c>
@@ -1694,7 +1856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s" s="0">
         <v>7</v>
       </c>
@@ -1717,7 +1879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s" s="0">
         <v>7</v>
       </c>
@@ -1740,7 +1902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s" s="0">
         <v>7</v>
       </c>
@@ -1763,7 +1925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s" s="0">
         <v>7</v>
       </c>
@@ -1786,7 +1948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s" s="0">
         <v>31</v>
       </c>
@@ -1809,7 +1971,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s" s="0">
         <v>31</v>
       </c>
@@ -1832,7 +1994,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s" s="0">
         <v>7</v>
       </c>
@@ -1855,7 +2017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s" s="0">
         <v>7</v>
       </c>
@@ -1876,6 +2038,1248 @@
       </c>
       <c r="G53" t="s" s="0">
         <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F54" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="F55" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="F56" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G56" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="F57" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G57" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="F58" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G58" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F59" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G59" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F60" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G60" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="F61" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G61" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="F62" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G62" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F63" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G63" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="F64" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G64" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="F65" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G65" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="F66" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G66" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F67" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G67" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="F68" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G68" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="F69" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G69" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="F70" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="G70" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="F71" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="F72" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F73" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="F74" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="F75" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="G75" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F76" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="F77" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="F78" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G78" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="F79" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G79" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="F80" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G80" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E81" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="F81" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G81" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="F82" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="G82" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="F83" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G83" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E84" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F84" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="F85" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E86" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="F86" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E87" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F87" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F88" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="F89" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G89" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="F90" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G90" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="F91" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G91" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="F92" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="F93" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="G93" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F94" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G94" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="F95" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E96" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="F96" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G96" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E97" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="F97" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E98" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="F98" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G98" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E99" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="F99" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G99" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E100" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F100" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G100" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E101" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F101" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G101" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E102" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="F102" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G102" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E103" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="F103" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G103" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E104" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="F104" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G104" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E105" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F105" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G105" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E106" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="F106" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="G106" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E107" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="F107" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="G107" t="s" s="0">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="144">
   <si>
     <t>PackageType</t>
   </si>
@@ -418,6 +418,45 @@
   </si>
   <si>
     <t>MD-2260.R00.20</t>
+  </si>
+  <si>
+    <t>MD-25-9348</t>
+  </si>
+  <si>
+    <t>MD-25-9349</t>
+  </si>
+  <si>
+    <t>MD-25-9351</t>
+  </si>
+  <si>
+    <t>MD-25-9352</t>
+  </si>
+  <si>
+    <t>MD-25-9353</t>
+  </si>
+  <si>
+    <t>MD-25-9354</t>
+  </si>
+  <si>
+    <t>MD-25-9355</t>
+  </si>
+  <si>
+    <t>MD-25-9356</t>
+  </si>
+  <si>
+    <t>MD-25-9357</t>
+  </si>
+  <si>
+    <t>MD-25-9358</t>
+  </si>
+  <si>
+    <t>MD-25-9359</t>
+  </si>
+  <si>
+    <t>MD-25-9360</t>
+  </si>
+  <si>
+    <t>MD-25-9361</t>
   </si>
 </sst>
 </file>
@@ -804,7 +843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
@@ -3282,6 +3321,305 @@
         <v>43</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E108" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="F108" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G108" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E109" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F109" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G109" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E110" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="F110" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G110" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E111" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="F111" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G111" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E112" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="F112" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G112" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E113" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F113" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G113" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E114" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="F114" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G114" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E115" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="F115" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G115" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E116" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="F116" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G116" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E117" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F117" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E118" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="F118" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E119" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="F119" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F120" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="151">
   <si>
     <t>PackageType</t>
   </si>
@@ -460,6 +460,24 @@
   </si>
   <si>
     <t>MD-25-9371</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.23</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.24</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.25</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.26</t>
+  </si>
+  <si>
+    <t>MD-2268.R00.00</t>
+  </si>
+  <si>
+    <t>MD-2269.R00.00</t>
   </si>
 </sst>
 </file>
@@ -846,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
       <selection activeCell="E107" sqref="E107"/>
@@ -3646,6 +3664,144 @@
         <v>9</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E122" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="F122" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G122" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E123" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="F123" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G123" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E124" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="F124" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G124" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E125" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="F125" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G125" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E126" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="F126" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G126" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E127" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F127" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G127" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jad92\macpro-onemac-automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466D19F5-1401-466D-BB60-6FBD1753181E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884DA179-5093-4208-9F47-ABFD8F43BBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{75A6ABCC-9875-48AC-9A16-7CDC4958549E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="156">
   <si>
     <t>PackageType</t>
   </si>
@@ -456,9 +456,6 @@
     <t>MD-25-9361</t>
   </si>
   <si>
-    <t>MD-2260.R00.22</t>
-  </si>
-  <si>
     <t>MD-25-9371</t>
   </si>
   <si>
@@ -478,6 +475,24 @@
   </si>
   <si>
     <t>MD-2269.R00.00</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.27</t>
+  </si>
+  <si>
+    <t>MD-25-9392</t>
+  </si>
+  <si>
+    <t>MD-25-9393</t>
+  </si>
+  <si>
+    <t>MD-25-9394</t>
+  </si>
+  <si>
+    <t>MD-25-9395</t>
+  </si>
+  <si>
+    <t>MD-2271.R00.00</t>
   </si>
 </sst>
 </file>
@@ -864,9 +879,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
       <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
@@ -3333,7 +3348,7 @@
         <v>55</v>
       </c>
       <c r="E107" t="s" s="0">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F107" t="s" s="0">
         <v>64</v>
@@ -3641,7 +3656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s" s="0">
         <v>7</v>
       </c>
@@ -3655,7 +3670,7 @@
         <v>9</v>
       </c>
       <c r="E121" t="s" s="0">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F121" t="s" s="0">
         <v>14</v>
@@ -3664,7 +3679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s" s="0">
         <v>31</v>
       </c>
@@ -3678,7 +3693,7 @@
         <v>55</v>
       </c>
       <c r="E122" t="s" s="0">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F122" t="s" s="0">
         <v>9</v>
@@ -3687,7 +3702,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s" s="0">
         <v>31</v>
       </c>
@@ -3701,7 +3716,7 @@
         <v>55</v>
       </c>
       <c r="E123" t="s" s="0">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F123" t="s" s="0">
         <v>9</v>
@@ -3710,7 +3725,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s" s="0">
         <v>31</v>
       </c>
@@ -3724,7 +3739,7 @@
         <v>55</v>
       </c>
       <c r="E124" t="s" s="0">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F124" t="s" s="0">
         <v>40</v>
@@ -3733,7 +3748,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s" s="0">
         <v>31</v>
       </c>
@@ -3747,7 +3762,7 @@
         <v>55</v>
       </c>
       <c r="E125" t="s" s="0">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F125" t="s" s="0">
         <v>40</v>
@@ -3756,7 +3771,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s" s="0">
         <v>31</v>
       </c>
@@ -3770,7 +3785,7 @@
         <v>42</v>
       </c>
       <c r="E126" t="s" s="0">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F126" t="s" s="0">
         <v>9</v>
@@ -3779,7 +3794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s" s="0">
         <v>31</v>
       </c>
@@ -3793,12 +3808,127 @@
         <v>42</v>
       </c>
       <c r="E127" t="s" s="0">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F127" t="s" s="0">
         <v>9</v>
       </c>
       <c r="G127" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E128" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="F128" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G128" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E129" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F129" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G129" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E130" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="F130" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G130" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E131" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="F131" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G131" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D132" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E132" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="F132" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G132" t="s" s="0">
         <v>9</v>
       </c>
     </row>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jad92\macpro-onemac-automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18616320-E31F-479E-B7F8-8E685AC71C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136D0DE3-E051-4D69-B199-5779D8587918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{75A6ABCC-9875-48AC-9A16-7CDC4958549E}"/>
+    <workbookView xWindow="1536" yWindow="2304" windowWidth="21504" windowHeight="11292" xr2:uid="{75A6ABCC-9875-48AC-9A16-7CDC4958549E}"/>
   </bookViews>
   <sheets>
     <sheet name="Packages" sheetId="1" r:id="rId1"/>
@@ -468,9 +468,6 @@
     <t>MD-2260.R00.25</t>
   </si>
   <si>
-    <t>MD-2260.R00.26</t>
-  </si>
-  <si>
     <t>MD-2268.R00.00</t>
   </si>
   <si>
@@ -493,6 +490,9 @@
   </si>
   <si>
     <t>MD-2260.R00.29</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.31</t>
   </si>
 </sst>
 </file>
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3347,7 +3347,7 @@
         <v>55</v>
       </c>
       <c r="E107" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F107" t="s">
         <v>64</v>
@@ -3761,10 +3761,10 @@
         <v>55</v>
       </c>
       <c r="E125" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G125" t="s">
         <v>43</v>
@@ -3784,7 +3784,7 @@
         <v>42</v>
       </c>
       <c r="E126" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F126" t="s">
         <v>9</v>
@@ -3807,7 +3807,7 @@
         <v>42</v>
       </c>
       <c r="E127" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F127" t="s">
         <v>9</v>
@@ -3830,7 +3830,7 @@
         <v>9</v>
       </c>
       <c r="E128" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F128" t="s">
         <v>9</v>
@@ -3853,7 +3853,7 @@
         <v>9</v>
       </c>
       <c r="E129" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F129" t="s">
         <v>25</v>
@@ -3876,7 +3876,7 @@
         <v>9</v>
       </c>
       <c r="E130" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F130" t="s">
         <v>25</v>
@@ -3899,7 +3899,7 @@
         <v>9</v>
       </c>
       <c r="E131" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F131" t="s">
         <v>25</v>
@@ -3922,7 +3922,7 @@
         <v>42</v>
       </c>
       <c r="E132" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F132" t="s">
         <v>30</v>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jad92\macpro-onemac-automation\src\test\resources\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="168">
   <si>
     <t>PackageType</t>
   </si>
@@ -493,12 +493,49 @@
   </si>
   <si>
     <t>MD-2260.R00.31</t>
+  </si>
+  <si>
+    <t>MD-25-9414</t>
+  </si>
+  <si>
+    <t>MD-25-9415</t>
+  </si>
+  <si>
+    <t>MD-25-9416</t>
+  </si>
+  <si>
+    <t>MD-25-9417</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.32</t>
+  </si>
+  <si>
+    <t>MD-25-9418</t>
+  </si>
+  <si>
+    <t>MD-25-9419</t>
+  </si>
+  <si>
+    <t>MD-25-9420</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.33</t>
+  </si>
+  <si>
+    <t>MD-25-9421</t>
+  </si>
+  <si>
+    <t>MD-2274.R00.00</t>
+  </si>
+  <si>
+    <t>MD-25-9422</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -878,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
       <selection activeCell="F125" sqref="F125"/>
@@ -886,13 +923,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.33203125"/>
+    <col min="2" max="2" customWidth="true" width="16.6640625"/>
+    <col min="3" max="3" customWidth="true" width="13.5546875"/>
+    <col min="4" max="4" customWidth="true" width="27.109375"/>
+    <col min="5" max="5" customWidth="true" width="20.6640625"/>
+    <col min="6" max="6" customWidth="true" width="26.44140625"/>
+    <col min="7" max="7" customWidth="true" width="30.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -919,3015 +956,3291 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="A2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="A3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="A4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="A5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="A6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="A7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="A8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="A9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="A10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="A11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="A12" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="A13" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="A14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="A15" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="A17" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="A18" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="A19" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F19" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="A20" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="A21" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="A22" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="A23" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="A25" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="A26" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="A27" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="A28" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="A29" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="A30" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="A31" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="A32" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="A33" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="A43" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="A44" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="A45" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="F45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="F45" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="A46" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="A47" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="A48" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="A49" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="F51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="F51" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="A52" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="A53" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="A54" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="F54" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="F54" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="A55" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="A56" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="A57" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="A58" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="A59" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="A60" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="A61" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="A62" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="A63" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="A64" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="A65" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="A66" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="A67" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="A68" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="A69" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="A70" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="A71" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="A72" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="A73" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E73" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="A74" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="A75" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E75" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="A76" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E76" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="A77" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="A78" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B79" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="A80" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B81" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B82" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="A83" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B84" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="F84" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="F84" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="A85" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="F85" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="F85" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B86" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B86" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="F86" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="F86" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B87" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B87" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="F87" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="F87" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="A88" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="A89" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="A90" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="A91" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="A92" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="A93" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>7</v>
-      </c>
-      <c r="B94" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="A94" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>7</v>
-      </c>
-      <c r="B95" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" t="s">
-        <v>10</v>
-      </c>
-      <c r="D95" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="A95" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>7</v>
-      </c>
-      <c r="B96" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="A96" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E96" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" t="s">
-        <v>10</v>
-      </c>
-      <c r="D97" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="A97" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E97" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="A98" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B98" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B98" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="A99" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B99" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B99" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="A100" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B100" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>7</v>
-      </c>
-      <c r="B101" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="A101" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E101" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="A102" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B102" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B102" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="A103" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B103" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B103" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="A104" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B104" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B104" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="A105" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B105" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B105" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="A106" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B106" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B106" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="A107" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B107" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>7</v>
-      </c>
-      <c r="B108" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="A108" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E108" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="F108" t="s">
-        <v>9</v>
-      </c>
-      <c r="G108" t="s">
+      <c r="F108" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G108" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>7</v>
-      </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" t="s">
-        <v>10</v>
-      </c>
-      <c r="D109" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="A109" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E109" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="F109" t="s">
-        <v>9</v>
-      </c>
-      <c r="G109" t="s">
+      <c r="F109" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G109" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>7</v>
-      </c>
-      <c r="B110" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" t="s">
-        <v>10</v>
-      </c>
-      <c r="D110" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="A110" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E110" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="F110" t="s">
-        <v>9</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="F110" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G110" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>7</v>
-      </c>
-      <c r="B111" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" t="s">
-        <v>10</v>
-      </c>
-      <c r="D111" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="A111" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E111" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="F111" t="s">
-        <v>9</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="F111" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G111" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>7</v>
-      </c>
-      <c r="B112" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" t="s">
-        <v>10</v>
-      </c>
-      <c r="D112" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="A112" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E112" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="F112" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112" t="s">
+      <c r="F112" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G112" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>7</v>
-      </c>
-      <c r="B113" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" t="s">
-        <v>10</v>
-      </c>
-      <c r="D113" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="A113" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E113" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="F113" t="s">
-        <v>9</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="F113" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G113" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>7</v>
-      </c>
-      <c r="B114" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" t="s">
-        <v>10</v>
-      </c>
-      <c r="D114" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="A114" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E114" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="F114" t="s">
-        <v>9</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="F114" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G114" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>7</v>
-      </c>
-      <c r="B115" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" t="s">
-        <v>10</v>
-      </c>
-      <c r="D115" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="A115" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E115" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="F115" t="s">
-        <v>9</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="F115" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G115" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>7</v>
-      </c>
-      <c r="B116" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" t="s">
-        <v>10</v>
-      </c>
-      <c r="D116" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="A116" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E116" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="F116" t="s">
-        <v>9</v>
-      </c>
-      <c r="G116" t="s">
+      <c r="F116" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G116" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" t="s">
-        <v>10</v>
-      </c>
-      <c r="D117" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="A117" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E117" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>7</v>
-      </c>
-      <c r="B118" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" t="s">
-        <v>10</v>
-      </c>
-      <c r="D118" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="A118" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E118" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>7</v>
-      </c>
-      <c r="B119" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" t="s">
-        <v>10</v>
-      </c>
-      <c r="D119" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="A119" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E119" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>7</v>
-      </c>
-      <c r="B120" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="A120" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" t="s">
-        <v>10</v>
-      </c>
-      <c r="D121" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="A121" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E121" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="A122" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B122" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B122" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="F122" t="s">
-        <v>9</v>
-      </c>
-      <c r="G122" t="s">
+      <c r="F122" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G122" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="A123" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B123" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B123" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="F123" t="s">
-        <v>9</v>
-      </c>
-      <c r="G123" t="s">
+      <c r="F123" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G123" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="A124" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B124" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B124" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="A125" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B125" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B125" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="A126" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B126" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B126" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C126" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="F126" t="s">
-        <v>9</v>
-      </c>
-      <c r="G126" t="s">
+      <c r="F126" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G126" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="A127" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B127" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B127" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="F127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="F127" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G127" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>7</v>
-      </c>
-      <c r="B128" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" t="s">
-        <v>10</v>
-      </c>
-      <c r="D128" t="s">
-        <v>9</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="A128" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E128" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="F128" t="s">
-        <v>9</v>
-      </c>
-      <c r="G128" t="s">
+      <c r="F128" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G128" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>7</v>
-      </c>
-      <c r="B129" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" t="s">
-        <v>10</v>
-      </c>
-      <c r="D129" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" t="s">
+      <c r="A129" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E129" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>7</v>
-      </c>
-      <c r="B130" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" t="s">
-        <v>10</v>
-      </c>
-      <c r="D130" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="A130" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E130" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>7</v>
-      </c>
-      <c r="B131" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" t="s">
-        <v>10</v>
-      </c>
-      <c r="D131" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="A131" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E131" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="A132" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B132" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="B132" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E133" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F133" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E134" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="F134" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E135" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="F135" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G135" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E136" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F136" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G136" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D137" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E137" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="F137" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G137" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D138" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E138" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="F138" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G138" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D139" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E139" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F139" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G139" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D140" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E140" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="F140" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G140" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D141" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E141" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="F141" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="G141" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D142" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E142" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="F142" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G142" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D143" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E143" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="F143" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G143" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D144" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E144" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="F144" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="G144" t="s" s="0">
         <v>9</v>
       </c>
     </row>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="180">
   <si>
     <t>PackageType</t>
   </si>
@@ -529,6 +529,42 @@
   </si>
   <si>
     <t>MD-25-9422</t>
+  </si>
+  <si>
+    <t>MD-25-9423</t>
+  </si>
+  <si>
+    <t>MD-25-9424</t>
+  </si>
+  <si>
+    <t>MD-25-9425</t>
+  </si>
+  <si>
+    <t>MD-25-9426</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.34</t>
+  </si>
+  <si>
+    <t>MD-25-9427</t>
+  </si>
+  <si>
+    <t>MD-25-9428</t>
+  </si>
+  <si>
+    <t>MD-25-9429</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.35</t>
+  </si>
+  <si>
+    <t>MD-25-9430</t>
+  </si>
+  <si>
+    <t>MD-2275.R00.00</t>
+  </si>
+  <si>
+    <t>MD-25-9431</t>
   </si>
 </sst>
 </file>
@@ -915,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
       <selection activeCell="F125" sqref="F125"/>
@@ -4244,6 +4280,282 @@
         <v>9</v>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D145" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E145" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F145" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G145" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D146" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E146" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="F146" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G146" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D147" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E147" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="F147" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G147" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D148" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E148" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="F148" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G148" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D149" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E149" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="F149" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G149" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D150" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E150" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="F150" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G150" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D151" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E151" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="F151" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G151" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D152" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E152" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F152" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G152" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D153" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E153" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="F153" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="G153" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D154" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E154" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="F154" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G154" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D155" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E155" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="F155" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G155" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D156" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E156" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="F156" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G156" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="182">
   <si>
     <t>PackageType</t>
   </si>
@@ -565,6 +565,12 @@
   </si>
   <si>
     <t>MD-25-9431</t>
+  </si>
+  <si>
+    <t>MD-25-9432</t>
+  </si>
+  <si>
+    <t>MD-25-9433</t>
   </si>
 </sst>
 </file>
@@ -951,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
       <selection activeCell="F125" sqref="F125"/>
@@ -4556,6 +4562,52 @@
         <v>9</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D157" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E157" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="F157" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G157" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C158" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D158" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E158" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="F158" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G158" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="188">
   <si>
     <t>PackageType</t>
   </si>
@@ -571,6 +571,24 @@
   </si>
   <si>
     <t>MD-25-9433</t>
+  </si>
+  <si>
+    <t>MD-25-9434</t>
+  </si>
+  <si>
+    <t>MD-25-9435</t>
+  </si>
+  <si>
+    <t>MD-25-9436</t>
+  </si>
+  <si>
+    <t>MD-25-9437</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.36</t>
+  </si>
+  <si>
+    <t>MD-25-9438</t>
   </si>
 </sst>
 </file>
@@ -957,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G158"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
       <selection activeCell="F125" sqref="F125"/>
@@ -4608,6 +4626,144 @@
         <v>9</v>
       </c>
     </row>
+    <row r="159">
+      <c r="A159" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D159" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E159" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="F159" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G159" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D160" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E160" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="F160" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G160" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D161" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E161" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="F161" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G161" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D162" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E162" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="F162" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G162" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D163" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E163" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F163" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G163" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D164" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E164" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="F164" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G164" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="191">
   <si>
     <t>PackageType</t>
   </si>
@@ -589,6 +589,15 @@
   </si>
   <si>
     <t>MD-25-9438</t>
+  </si>
+  <si>
+    <t>CHIP SPA</t>
+  </si>
+  <si>
+    <t>MD-25-9439</t>
+  </si>
+  <si>
+    <t>MD-25-9440</t>
   </si>
 </sst>
 </file>
@@ -975,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:G166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
       <selection activeCell="F125" sqref="F125"/>
@@ -4764,6 +4773,52 @@
         <v>9</v>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="D165" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E165" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="F165" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G165" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="D166" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E166" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="F166" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G166" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="49">
   <si>
     <t>PackageType</t>
   </si>
@@ -109,6 +109,69 @@
   </si>
   <si>
     <t>MD-25-9472</t>
+  </si>
+  <si>
+    <t>Medicaid SPA</t>
+  </si>
+  <si>
+    <t>MD-25-9473</t>
+  </si>
+  <si>
+    <t>Under Review</t>
+  </si>
+  <si>
+    <t>MD-25-9474</t>
+  </si>
+  <si>
+    <t>MD-25-9475</t>
+  </si>
+  <si>
+    <t>MD-25-9476</t>
+  </si>
+  <si>
+    <t>Disapproved</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.42</t>
+  </si>
+  <si>
+    <t>MD-25-9477</t>
+  </si>
+  <si>
+    <t>Pending-Concurrence</t>
+  </si>
+  <si>
+    <t>MD-25-9478</t>
+  </si>
+  <si>
+    <t>RAI Issued</t>
+  </si>
+  <si>
+    <t>MD-25-9479</t>
+  </si>
+  <si>
+    <t>MD-25-9480</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.43</t>
+  </si>
+  <si>
+    <t>Unsubmitted</t>
+  </si>
+  <si>
+    <t>MD-25-9481</t>
+  </si>
+  <si>
+    <t>MD-2278.R00.00</t>
+  </si>
+  <si>
+    <t>Terminated</t>
+  </si>
+  <si>
+    <t>MD-25-9482</t>
+  </si>
+  <si>
+    <t>Withdrawn</t>
   </si>
 </sst>
 </file>
@@ -492,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -690,6 +753,305 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="50">
   <si>
     <t>PackageType</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Withdrawn</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.44</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -1052,6 +1055,29 @@
         <v>8</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="63">
   <si>
     <t>PackageType</t>
   </si>
@@ -175,6 +175,45 @@
   </si>
   <si>
     <t>MD-2260.R00.44</t>
+  </si>
+  <si>
+    <t>MD-25-9483</t>
+  </si>
+  <si>
+    <t>MD-25-9484</t>
+  </si>
+  <si>
+    <t>MD-25-9485</t>
+  </si>
+  <si>
+    <t>MD-25-9486</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.45</t>
+  </si>
+  <si>
+    <t>MD-25-9487</t>
+  </si>
+  <si>
+    <t>MD-25-9488</t>
+  </si>
+  <si>
+    <t>MD-25-9489</t>
+  </si>
+  <si>
+    <t>MD-25-9490</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.46</t>
+  </si>
+  <si>
+    <t>MD-25-9491</t>
+  </si>
+  <si>
+    <t>MD-2279.R00.00</t>
+  </si>
+  <si>
+    <t>MD-25-9492</t>
   </si>
 </sst>
 </file>
@@ -558,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -1078,6 +1117,305 @@
         <v>12</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57901\macpro-onemac-automation\src\test\resources\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="47">
   <si>
     <t>PackageType</t>
   </si>
@@ -94,12 +94,85 @@
   </si>
   <si>
     <t>MD-2260.R00.51</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.52</t>
+  </si>
+  <si>
+    <t>SPA</t>
+  </si>
+  <si>
+    <t>Medicaid SPA</t>
+  </si>
+  <si>
+    <t>MD-25-9506</t>
+  </si>
+  <si>
+    <t>Under Review</t>
+  </si>
+  <si>
+    <t>CHIP SPA</t>
+  </si>
+  <si>
+    <t>MD-25-9507</t>
+  </si>
+  <si>
+    <t>MD-25-9508</t>
+  </si>
+  <si>
+    <t>MD-25-9509</t>
+  </si>
+  <si>
+    <t>Disapproved</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.53</t>
+  </si>
+  <si>
+    <t>MD-25-9510</t>
+  </si>
+  <si>
+    <t>Pending-Concurrence</t>
+  </si>
+  <si>
+    <t>MD-25-9511</t>
+  </si>
+  <si>
+    <t>MD-25-9512</t>
+  </si>
+  <si>
+    <t>RAI Issued</t>
+  </si>
+  <si>
+    <t>MD-25-9513</t>
+  </si>
+  <si>
+    <t>MD-25-9514</t>
+  </si>
+  <si>
+    <t>MD-25-9515</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.54</t>
+  </si>
+  <si>
+    <t>MD-25-9516</t>
+  </si>
+  <si>
+    <t>MD-2280.R00.00</t>
+  </si>
+  <si>
+    <t>MD-25-9517</t>
+  </si>
+  <si>
+    <t>Withdrawn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -476,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -484,13 +557,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625"/>
+    <col min="2" max="2" customWidth="true" width="16.7109375"/>
+    <col min="3" max="3" customWidth="true" width="13.5703125"/>
+    <col min="4" max="4" customWidth="true" width="27.140625"/>
+    <col min="5" max="5" customWidth="true" width="20.7109375"/>
+    <col min="6" max="6" customWidth="true" width="26.42578125"/>
+    <col min="7" max="7" customWidth="true" width="30.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -517,115 +590,483 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="73">
   <si>
     <t>PackageType</t>
   </si>
@@ -166,6 +166,84 @@
   </si>
   <si>
     <t>Withdrawn</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.55</t>
+  </si>
+  <si>
+    <t>MD-25-9518</t>
+  </si>
+  <si>
+    <t>MD-25-9519</t>
+  </si>
+  <si>
+    <t>MD-25-9520</t>
+  </si>
+  <si>
+    <t>MD-25-9521</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.56</t>
+  </si>
+  <si>
+    <t>MD-25-9522</t>
+  </si>
+  <si>
+    <t>MD-25-9523</t>
+  </si>
+  <si>
+    <t>MD-25-9524</t>
+  </si>
+  <si>
+    <t>MD-25-9525</t>
+  </si>
+  <si>
+    <t>MD-25-9526</t>
+  </si>
+  <si>
+    <t>MD-25-9527</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.57</t>
+  </si>
+  <si>
+    <t>MD-25-9528</t>
+  </si>
+  <si>
+    <t>MD-2281.R00.00</t>
+  </si>
+  <si>
+    <t>MD-25-9529</t>
+  </si>
+  <si>
+    <t>MD-25-9530</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.58</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.59</t>
+  </si>
+  <si>
+    <t>Pending-Approval</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.60</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.61</t>
+  </si>
+  <si>
+    <t>Unsubmitted</t>
+  </si>
+  <si>
+    <t>MD-2282.R00.00</t>
+  </si>
+  <si>
+    <t>Terminated</t>
+  </si>
+  <si>
+    <t>MD-2283.R00.00</t>
   </si>
 </sst>
 </file>
@@ -549,7 +627,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -1069,6 +1147,535 @@
         <v>8</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="88">
   <si>
     <t>PackageType</t>
   </si>
@@ -244,6 +244,51 @@
   </si>
   <si>
     <t>MD-2283.R00.00</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.62</t>
+  </si>
+  <si>
+    <t>MD-25-9531</t>
+  </si>
+  <si>
+    <t>MD-25-9532</t>
+  </si>
+  <si>
+    <t>MD-25-9533</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.63</t>
+  </si>
+  <si>
+    <t>MD-25-9534</t>
+  </si>
+  <si>
+    <t>MD-25-9535</t>
+  </si>
+  <si>
+    <t>MD-25-9536</t>
+  </si>
+  <si>
+    <t>MD-25-9537</t>
+  </si>
+  <si>
+    <t>MD-25-9538</t>
+  </si>
+  <si>
+    <t>MD-25-9539</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.64</t>
+  </si>
+  <si>
+    <t>MD-25-9540</t>
+  </si>
+  <si>
+    <t>MD-2284.R00.00</t>
+  </si>
+  <si>
+    <t>MD-25-9541</t>
   </si>
 </sst>
 </file>
@@ -627,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -1676,6 +1721,351 @@
         <v>8</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="F51" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="F52" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="F53" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="F54" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F55" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F56" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="F57" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G57" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="F58" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G58" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F59" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="G59" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="F60" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G60" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="91">
   <si>
     <t>PackageType</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>MD-25-9541</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.65</t>
+  </si>
+  <si>
+    <t>MD-25-9542</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.66</t>
   </si>
 </sst>
 </file>
@@ -672,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -2066,6 +2075,75 @@
         <v>8</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="F61" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="F62" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F63" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="106">
   <si>
     <t>PackageType</t>
   </si>
@@ -298,6 +298,51 @@
   </si>
   <si>
     <t>MD-2260.R00.66</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.67</t>
+  </si>
+  <si>
+    <t>MD-25-9543</t>
+  </si>
+  <si>
+    <t>MD-25-9544</t>
+  </si>
+  <si>
+    <t>MD-25-9545</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.68</t>
+  </si>
+  <si>
+    <t>MD-25-9546</t>
+  </si>
+  <si>
+    <t>MD-25-9547</t>
+  </si>
+  <si>
+    <t>MD-25-9548</t>
+  </si>
+  <si>
+    <t>MD-25-9549</t>
+  </si>
+  <si>
+    <t>MD-25-9550</t>
+  </si>
+  <si>
+    <t>MD-25-9551</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.69</t>
+  </si>
+  <si>
+    <t>MD-25-9552</t>
+  </si>
+  <si>
+    <t>MD-2285.R00.00</t>
+  </si>
+  <si>
+    <t>MD-25-9553</t>
   </si>
 </sst>
 </file>
@@ -681,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -2144,6 +2189,351 @@
         <v>12</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="F64" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="F65" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="F66" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G66" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="F67" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G67" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="F68" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="G68" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F69" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G69" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="F70" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="F71" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G71" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="F72" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="F73" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="F74" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="F75" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G75" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="F76" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G76" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="F77" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="G77" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="F78" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G78" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="121">
   <si>
     <t>PackageType</t>
   </si>
@@ -343,6 +343,51 @@
   </si>
   <si>
     <t>MD-25-9553</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.70</t>
+  </si>
+  <si>
+    <t>MD-25-9554</t>
+  </si>
+  <si>
+    <t>MD-25-9555</t>
+  </si>
+  <si>
+    <t>MD-25-9556</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.71</t>
+  </si>
+  <si>
+    <t>MD-25-9557</t>
+  </si>
+  <si>
+    <t>MD-25-9558</t>
+  </si>
+  <si>
+    <t>MD-25-9559</t>
+  </si>
+  <si>
+    <t>MD-25-9560</t>
+  </si>
+  <si>
+    <t>MD-25-9561</t>
+  </si>
+  <si>
+    <t>MD-25-9562</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.72</t>
+  </si>
+  <si>
+    <t>MD-25-9563</t>
+  </si>
+  <si>
+    <t>MD-2286.R00.00</t>
+  </si>
+  <si>
+    <t>MD-25-9564</t>
   </si>
 </sst>
 </file>
@@ -726,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -2534,6 +2579,351 @@
         <v>8</v>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="F79" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F80" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G80" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="F81" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G81" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="F82" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G82" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F83" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="G83" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F84" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G84" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="F85" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="F86" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G86" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="F87" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="F88" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="F89" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E90" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F90" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G90" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="F91" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G91" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="F92" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="G92" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E93" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="F93" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G93" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="125">
   <si>
     <t>PackageType</t>
   </si>
@@ -388,6 +388,18 @@
   </si>
   <si>
     <t>MD-25-9564</t>
+  </si>
+  <si>
+    <t>MD-25-9565</t>
+  </si>
+  <si>
+    <t>MD-25-9566</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.73</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.74</t>
   </si>
 </sst>
 </file>
@@ -771,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -2924,6 +2936,98 @@
         <v>8</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="F94" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G94" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E95" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="F95" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G95" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F96" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G96" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F97" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G97" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57901\macpro-onemac-automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1653B8A7-EF82-49D0-B78D-A01E2682FDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACA6FAF-03A0-4A38-BE36-2726B7B514BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34935" yWindow="1680" windowWidth="21600" windowHeight="11295" xr2:uid="{75A6ABCC-9875-48AC-9A16-7CDC4958549E}"/>
   </bookViews>
@@ -399,7 +399,7 @@
     <t>MD-2260.R00.73</t>
   </si>
   <si>
-    <t>MD-2260.R00.78</t>
+    <t>MD-2260.R00.79</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57901\macpro-onemac-automation\src\test\resources\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="126">
   <si>
     <t>PackageType</t>
   </si>
@@ -400,12 +400,16 @@
   </si>
   <si>
     <t>MD-2260.R00.79</t>
+  </si>
+  <si>
+    <t>MD-2260.R00.80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -782,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
       <selection activeCell="E97" sqref="E97"/>
@@ -790,13 +794,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625"/>
+    <col min="2" max="2" customWidth="true" width="16.7109375"/>
+    <col min="3" max="3" customWidth="true" width="13.5703125"/>
+    <col min="4" max="4" customWidth="true" width="27.140625"/>
+    <col min="5" max="5" customWidth="true" width="20.7109375"/>
+    <col min="6" max="6" customWidth="true" width="26.42578125"/>
+    <col min="7" max="7" customWidth="true" width="30.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -823,2207 +827,2230 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="A6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="A7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="A8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="A9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="A10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="A11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="A12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="A13" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="A14" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="A15" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="A16" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="A17" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="A18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F18" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="A19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F19" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="A20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="A21" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="F21" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="A22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="A23" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F23" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="A24" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="A25" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="A26" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="A27" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="A28" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="F28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="A29" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="A30" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F30" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="A31" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="A32" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F32" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="A33" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F33" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="A34" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F34" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="A35" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="A36" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="A37" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F37" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="A38" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="A39" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D39" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F39" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="A40" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F40" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="A41" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="A42" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="A43" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="A44" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="A45" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="A46" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="F46" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="A47" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="A48" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="A49" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="A50" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="A51" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="A52" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D52" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="F52" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="A53" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="A54" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D54" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="F54" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="A55" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="F55" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="A56" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="F56" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="A57" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="A58" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="A59" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="A60" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="A61" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="F61" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="A62" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="A63" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="F63" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="A64" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="F64" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="A65" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="A66" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="A67" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="A68" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" t="s">
-        <v>25</v>
-      </c>
-      <c r="D69" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="A69" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="A70" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D70" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="D70" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="F70" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" t="s">
-        <v>25</v>
-      </c>
-      <c r="D71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="A71" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="A72" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D72" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="D72" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="F72" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="A73" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="F73" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="A74" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="F74" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="A75" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" t="s">
-        <v>25</v>
-      </c>
-      <c r="D76" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="A76" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="A77" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="A78" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="A79" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="F79" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>24</v>
-      </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="A80" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>24</v>
-      </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
-        <v>25</v>
-      </c>
-      <c r="D81" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="A81" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>24</v>
-      </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="A82" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="A83" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>24</v>
-      </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="A84" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="A85" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D85" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="D85" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="F85" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>24</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
-        <v>25</v>
-      </c>
-      <c r="D86" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="A86" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>24</v>
-      </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="A87" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D87" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="D87" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="F87" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>24</v>
-      </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" t="s">
-        <v>25</v>
-      </c>
-      <c r="D88" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="A88" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="F88" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>24</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="A89" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="F89" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="A90" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>24</v>
-      </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>25</v>
-      </c>
-      <c r="D91" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="A91" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="A92" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>24</v>
-      </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
-        <v>25</v>
-      </c>
-      <c r="D93" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="A93" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E93" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>24</v>
-      </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
-        <v>25</v>
-      </c>
-      <c r="D94" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="A94" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="F94" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="F94" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G94" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>24</v>
-      </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="A95" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D95" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="D95" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E95" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="F95" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="F95" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G95" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="A96" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="F96" t="s">
-        <v>8</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="F96" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G96" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>10</v>
-      </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="A97" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="F97" t="s">
-        <v>8</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="F97" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G97" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="F98" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G98" t="s" s="0">
         <v>12</v>
       </c>
     </row>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="127">
   <si>
     <t>PackageType</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>MD-2260.R00.80</t>
+  </si>
+  <si>
+    <t>MD-25-9567</t>
   </si>
 </sst>
 </file>
@@ -786,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
       <selection activeCell="E97" sqref="E97"/>
@@ -3054,6 +3057,29 @@
         <v>12</v>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="F99" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G99" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/packages.xlsx
+++ b/src/test/resources/packages.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="128">
   <si>
     <t>PackageType</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>MD-25-9567</t>
+  </si>
+  <si>
+    <t>MD-25-9578</t>
   </si>
 </sst>
 </file>
@@ -789,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
       <selection activeCell="E97" sqref="E97"/>
@@ -3080,6 +3083,29 @@
         <v>8</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E100" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="F100" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G100" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
